--- a/biology/Botanique/Echeveria_agavoides/Echeveria_agavoides.xlsx
+++ b/biology/Botanique/Echeveria_agavoides/Echeveria_agavoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echeveria agavoides (agavoides : ressemblant à un Agave) est une espèce subtropicale de plante succulente, du genre Echeveria, de la famille des Crassulaceae.
 Elle est originaire du Mexique, dans les zones rocailleuses des États de San Luis Potosi, Hidalgo, Guanajuato, Durango.
@@ -512,7 +524,9 @@
           <t>Taxonomie et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymes : Urbinia agavoides, E. obscura, E. yuccoides
 Variétés :
@@ -554,7 +568,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de petite taille de 8 à 12 cm de haut, avec une rosette de 7 à 15 cm de diamètre.
 Plutôt solitaire, mais les spécimens âgés dans des conditions favorables peuvent former des touffes.
@@ -589,7 +605,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les echeverias, elle craint l'excès d'arrosage et la pourriture. Elle a besoin d'un sol minéral et bien drainé. Et d'un récipient plus large que haut. Eclairage ensoleillé (même plein soleil).
 Pour fleurir, la plante doit connaitre une période de repos en hiver au frais (5° minimum tout de même) et sans eau.
@@ -623,7 +641,9 @@
           <t>Commerce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En vue de leur commercialisation, les echeverias agavoïdes sont régulièrement colorées artificiellement, par projection de peinture.
 			variété Miranda peintes dorées.
